--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T16:42:39+00:00</t>
+    <t>2025-01-31T13:30:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1015,7 +1015,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Schedule {http://sas.fr/fhir/StructureDefinition/FrScheduleAgregateur}
+    <t xml:space="preserve">Schedule {https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-schedule-aggregator}
 </t>
   </si>
   <si>
@@ -1124,14 +1124,14 @@
     <t>Bundle.entry:practitionerAgregateur.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Practitioner {http://sas.fr/fhir/StructureDefinition/FrPractitionerAgregateur}
+    <t xml:space="preserve">Practitioner {https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-practitioner-aggregator}
 </t>
   </si>
   <si>
-    <t>A person with a  formal responsibility in the provisioning of healthcare or related services | Prestataire de santé</t>
-  </si>
-  <si>
-    <t>A person who is directly or indirectly involved in the provisioning of healthcare | Un professionnel impliqué directement ou indirectement dans la prise en charge d'une personne.</t>
+    <t>A person with a  formal responsibility in the provisioning of healthcare or related services</t>
+  </si>
+  <si>
+    <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -1239,7 +1239,7 @@
     <t>Bundle.entry:practitionerRole.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">PractitionerRole {http://sas.fr/fhir/StructureDefinition/FrPractitionerRoleExerciceAgregateur}
+    <t xml:space="preserve">PractitionerRole {https://interop.esante.gouv.fr/ig/fhir/sas/StructureDefinition/sas-practitioner-role-exercice-aggregator}
 </t>
   </si>
   <si>
@@ -1889,7 +1889,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.56640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="111.765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T13:30:27+00:00</t>
+    <t>2025-01-31T15:48:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:48:31+00:00</t>
+    <t>2025-01-31T16:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:36:09+00:00</t>
+    <t>2025-01-31T16:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:52:44+00:00</t>
+    <t>2025-02-03T13:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:34:22+00:00</t>
+    <t>2025-02-03T13:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T13:56:30+00:00</t>
+    <t>2025-02-03T16:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:39:55+00:00</t>
+    <t>2025-02-03T16:55:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T16:55:26+00:00</t>
+    <t>2025-02-04T08:34:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:34:23+00:00</t>
+    <t>2025-02-04T08:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T08:52:18+00:00</t>
+    <t>2025-02-04T09:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:36:46+00:00</t>
+    <t>2025-02-04T10:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:02:41+00:00</t>
+    <t>2025-02-04T10:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T10:20:10+00:00</t>
+    <t>2025-02-04T12:30:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:30:23+00:00</t>
+    <t>2025-02-04T12:59:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T12:59:01+00:00</t>
+    <t>2025-02-04T15:23:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T15:23:22+00:00</t>
+    <t>2025-02-04T16:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:00:41+00:00</t>
+    <t>2025-02-05T17:09:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T17:09:50+00:00</t>
+    <t>2025-02-06T08:29:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T08:29:34+00:00</t>
+    <t>2025-02-06T09:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:04:57+00:00</t>
+    <t>2025-02-06T09:17:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:17:57+00:00</t>
+    <t>2025-02-06T09:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:34:11+00:00</t>
+    <t>2025-02-06T09:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T09:41:46+00:00</t>
+    <t>2025-02-06T10:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T10:00:10+00:00</t>
+    <t>2025-02-06T13:19:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:19:14+00:00</t>
+    <t>2025-02-06T13:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T13:39:47+00:00</t>
+    <t>2025-02-06T14:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:18:01+00:00</t>
+    <t>2025-02-06T14:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T14:37:01+00:00</t>
+    <t>2025-02-10T09:11:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T09:11:56+00:00</t>
+    <t>2025-02-10T10:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-10T10:48:04+00:00</t>
+    <t>2025-03-12T10:37:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T10:37:36+00:00</t>
+    <t>2025-03-12T11:02:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
+++ b/feature/testBR/ig/StructureDefinition-sas-cpts-bundle-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T11:02:50+00:00</t>
+    <t>2025-03-13T08:22:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
